--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.255482</v>
+        <v>0.534932</v>
       </c>
       <c r="N2">
-        <v>0.510964</v>
+        <v>1.069864</v>
       </c>
       <c r="O2">
-        <v>0.03385952189990702</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P2">
-        <v>0.02768247599107402</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q2">
-        <v>12.014885034787</v>
+        <v>35.037486728594</v>
       </c>
       <c r="R2">
-        <v>48.05954013914801</v>
+        <v>140.149946914376</v>
       </c>
       <c r="S2">
-        <v>0.003964597976391001</v>
+        <v>0.01041680434934334</v>
       </c>
       <c r="T2">
-        <v>0.002273748927794866</v>
+        <v>0.006265324820797278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.193125999999999</v>
       </c>
       <c r="O3">
-        <v>0.3619502603258385</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P3">
-        <v>0.4438786563962321</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q3">
-        <v>128.436272047247</v>
+        <v>178.880395695589</v>
       </c>
       <c r="R3">
-        <v>770.6176322834821</v>
+        <v>1073.282374173534</v>
       </c>
       <c r="S3">
-        <v>0.04238061228046921</v>
+        <v>0.05318195618104608</v>
       </c>
       <c r="T3">
-        <v>0.03645875532872812</v>
+        <v>0.04798048694761158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.164664</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N4">
-        <v>0.493992</v>
+        <v>0.032909</v>
       </c>
       <c r="O4">
-        <v>0.02182323730879784</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P4">
-        <v>0.02676298463254288</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q4">
-        <v>7.743868567524001</v>
+        <v>0.7185016978801667</v>
       </c>
       <c r="R4">
-        <v>46.46321140514401</v>
+        <v>4.311010187281</v>
       </c>
       <c r="S4">
-        <v>0.002555274192250131</v>
+        <v>0.0002136138265128653</v>
       </c>
       <c r="T4">
-        <v>0.002198224885391615</v>
+        <v>0.0001927212940407544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.922542</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N5">
-        <v>7.845084</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O5">
-        <v>0.5198620519344028</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P5">
-        <v>0.4250227990190287</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q5">
-        <v>184.470495667497</v>
+        <v>281.8750781855225</v>
       </c>
       <c r="R5">
-        <v>737.8819826699881</v>
+        <v>1127.50031274209</v>
       </c>
       <c r="S5">
-        <v>0.06087044126595499</v>
+        <v>0.08380274427669465</v>
       </c>
       <c r="T5">
-        <v>0.03490999626874038</v>
+        <v>0.05040426950140427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4184600000000001</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N6">
-        <v>1.25538</v>
+        <v>0.114962</v>
       </c>
       <c r="O6">
-        <v>0.05545931037895075</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P6">
-        <v>0.06801267155743754</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q6">
-        <v>19.67946388261</v>
+        <v>2.509963602409666</v>
       </c>
       <c r="R6">
-        <v>118.07678329566</v>
+        <v>15.059781614458</v>
       </c>
       <c r="S6">
-        <v>0.006493708633878625</v>
+        <v>0.0007462236082400563</v>
       </c>
       <c r="T6">
-        <v>0.005586340581675264</v>
+        <v>0.0006732390958556384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.02830350000001</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H7">
-        <v>94.05660700000001</v>
+        <v>36.993797</v>
       </c>
       <c r="I7">
-        <v>0.1170896029811303</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J7">
-        <v>0.0821367614850643</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05316166666666666</v>
+        <v>0.534932</v>
       </c>
       <c r="N7">
-        <v>0.159485</v>
+        <v>1.069864</v>
       </c>
       <c r="O7">
-        <v>0.007045618152102915</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P7">
-        <v>0.008640412403684879</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q7">
-        <v>2.500102994565833</v>
+        <v>6.596388605601333</v>
       </c>
       <c r="R7">
-        <v>15.000617967395</v>
+        <v>39.57833163360799</v>
       </c>
       <c r="S7">
-        <v>0.0008249686321863755</v>
+        <v>0.001961136369427722</v>
       </c>
       <c r="T7">
-        <v>0.000709695492734056</v>
+        <v>0.001769327131470747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.255482</v>
+        <v>2.731042</v>
       </c>
       <c r="N8">
-        <v>0.510964</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O8">
-        <v>0.03385952189990702</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P8">
-        <v>0.02768247599107402</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q8">
-        <v>3.150416415051333</v>
+        <v>33.67720444882467</v>
       </c>
       <c r="R8">
-        <v>18.902498490308</v>
+        <v>303.094840039422</v>
       </c>
       <c r="S8">
-        <v>0.001039555060888099</v>
+        <v>0.01001238623345514</v>
       </c>
       <c r="T8">
-        <v>0.000894297688878049</v>
+        <v>0.01354968493505566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.731042</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N9">
-        <v>8.193125999999999</v>
+        <v>0.032909</v>
       </c>
       <c r="O9">
-        <v>0.3619502603258385</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P9">
-        <v>0.4438786563962321</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q9">
-        <v>33.67720444882467</v>
+        <v>0.1352698739414445</v>
       </c>
       <c r="R9">
-        <v>303.094840039422</v>
+        <v>1.217428865473</v>
       </c>
       <c r="S9">
-        <v>0.01111259710115764</v>
+        <v>4.021634948086668E-05</v>
       </c>
       <c r="T9">
-        <v>0.01433974535678962</v>
+        <v>5.442447504502517E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.164664</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N10">
-        <v>0.493992</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O10">
-        <v>0.02182323730879784</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P10">
-        <v>0.02676298463254288</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q10">
-        <v>2.030515529736</v>
+        <v>53.06766345282833</v>
       </c>
       <c r="R10">
-        <v>18.274639767624</v>
+        <v>318.40598071697</v>
       </c>
       <c r="S10">
-        <v>0.0006700170444339637</v>
+        <v>0.01577725799076153</v>
       </c>
       <c r="T10">
-        <v>0.000864593012275317</v>
+        <v>0.01423416089693646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>3.922542</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N11">
-        <v>7.845084</v>
+        <v>0.114962</v>
       </c>
       <c r="O11">
-        <v>0.5198620519344028</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P11">
-        <v>0.4250227990190287</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q11">
-        <v>48.369907490658</v>
+        <v>0.4725423211904444</v>
       </c>
       <c r="R11">
-        <v>290.219444943948</v>
+        <v>4.252880890714</v>
       </c>
       <c r="S11">
-        <v>0.01596080501814658</v>
+        <v>0.0001404889838347988</v>
       </c>
       <c r="T11">
-        <v>0.01373059646130483</v>
+        <v>0.0001901226564200122</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H12">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I12">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J12">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4184600000000001</v>
+        <v>0.534932</v>
       </c>
       <c r="N12">
-        <v>1.25538</v>
+        <v>1.069864</v>
       </c>
       <c r="O12">
-        <v>0.05545931037895075</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P12">
-        <v>0.06801267155743754</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q12">
-        <v>5.160141430873334</v>
+        <v>66.37534433853067</v>
       </c>
       <c r="R12">
-        <v>46.44127287786001</v>
+        <v>398.252066031184</v>
       </c>
       <c r="S12">
-        <v>0.001702711779222152</v>
+        <v>0.01973369211526531</v>
       </c>
       <c r="T12">
-        <v>0.002197186949890257</v>
+        <v>0.01780363538605828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H13">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I13">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J13">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05316166666666666</v>
+        <v>2.731042</v>
       </c>
       <c r="N13">
-        <v>0.159485</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O13">
-        <v>0.007045618152102915</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P13">
-        <v>0.008640412403684879</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q13">
-        <v>0.6555506349494444</v>
+        <v>338.8727037324173</v>
       </c>
       <c r="R13">
-        <v>5.899955714544999</v>
+        <v>3049.854333591756</v>
       </c>
       <c r="S13">
-        <v>0.0002163145725670672</v>
+        <v>0.1007483978932993</v>
       </c>
       <c r="T13">
-        <v>0.0002791332988443719</v>
+        <v>0.1363420284971119</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.255482</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N14">
-        <v>0.510964</v>
+        <v>0.032909</v>
       </c>
       <c r="O14">
-        <v>0.03385952189990702</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P14">
-        <v>0.02768247599107402</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q14">
-        <v>32.96980153594133</v>
+        <v>1.361136372994889</v>
       </c>
       <c r="R14">
-        <v>197.818809215648</v>
+        <v>12.250227356954</v>
       </c>
       <c r="S14">
-        <v>0.01087917263235995</v>
+        <v>0.0004046720416933156</v>
       </c>
       <c r="T14">
-        <v>0.009359022247184379</v>
+        <v>0.0005476395475684685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.731042</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N15">
-        <v>8.193125999999999</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O15">
-        <v>0.3619502603258385</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P15">
-        <v>0.4438786563962321</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q15">
-        <v>352.4393606059147</v>
+        <v>533.9867987661765</v>
       </c>
       <c r="R15">
-        <v>3171.954245453232</v>
+        <v>3203.92079259706</v>
       </c>
       <c r="S15">
-        <v>0.1162957757659076</v>
+        <v>0.158756706808538</v>
       </c>
       <c r="T15">
-        <v>0.1500685929106253</v>
+        <v>0.143229483190534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.164664</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N16">
-        <v>0.493992</v>
+        <v>0.114962</v>
       </c>
       <c r="O16">
-        <v>0.02182323730879784</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P16">
-        <v>0.02676298463254288</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q16">
-        <v>21.249792158016</v>
+        <v>4.754898651196888</v>
       </c>
       <c r="R16">
-        <v>191.248129422144</v>
+        <v>42.794087860772</v>
       </c>
       <c r="S16">
-        <v>0.007011875914291104</v>
+        <v>0.001413653020667506</v>
       </c>
       <c r="T16">
-        <v>0.009048156265277212</v>
+        <v>0.001913085711129669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H17">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I17">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J17">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.922542</v>
+        <v>0.534932</v>
       </c>
       <c r="N17">
-        <v>7.845084</v>
+        <v>1.069864</v>
       </c>
       <c r="O17">
-        <v>0.5198620519344028</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P17">
-        <v>0.4250227990190287</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q17">
-        <v>506.201733415248</v>
+        <v>9.335283953403998</v>
       </c>
       <c r="R17">
-        <v>3037.210400491488</v>
+        <v>37.34113581361599</v>
       </c>
       <c r="S17">
-        <v>0.1670333392398779</v>
+        <v>0.002775422428025166</v>
       </c>
       <c r="T17">
-        <v>0.1436937155788474</v>
+        <v>0.001669314546317623</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H18">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I18">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J18">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,60 +1553,60 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4184600000000001</v>
+        <v>2.731042</v>
       </c>
       <c r="N18">
-        <v>1.25538</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O18">
-        <v>0.05545931037895075</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P18">
-        <v>0.06801267155743754</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q18">
-        <v>54.00201638757333</v>
+        <v>47.660361613574</v>
       </c>
       <c r="R18">
-        <v>486.0181474881601</v>
+        <v>285.962169681444</v>
       </c>
       <c r="S18">
-        <v>0.01781925372330476</v>
+        <v>0.0141696425315343</v>
       </c>
       <c r="T18">
-        <v>0.02299404527260301</v>
+        <v>0.01278377850980416</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H19">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I19">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J19">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.05316166666666666</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N19">
-        <v>0.159485</v>
+        <v>0.032909</v>
       </c>
       <c r="O19">
-        <v>0.007045618152102915</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P19">
-        <v>0.008640412403684879</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q19">
-        <v>6.86048175339111</v>
+        <v>0.1914354594743333</v>
       </c>
       <c r="R19">
-        <v>61.74433578052</v>
+        <v>1.148612756846</v>
       </c>
       <c r="S19">
-        <v>0.002263779636493539</v>
+        <v>5.691463381257195E-05</v>
       </c>
       <c r="T19">
-        <v>0.0029211914402819</v>
+        <v>5.134808948124869E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H20">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I20">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J20">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.255482</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N20">
-        <v>0.510964</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O20">
-        <v>0.03385952189990702</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P20">
-        <v>0.02768247599107402</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q20">
-        <v>3.265294747958</v>
+        <v>75.10195907123499</v>
       </c>
       <c r="R20">
-        <v>13.061178991832</v>
+        <v>300.4078362849399</v>
       </c>
       <c r="S20">
-        <v>0.001077461907674754</v>
+        <v>0.022328154412371</v>
       </c>
       <c r="T20">
-        <v>0.0006179385329620284</v>
+        <v>0.01342956393831481</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.731042</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N21">
-        <v>8.193125999999999</v>
+        <v>0.114962</v>
       </c>
       <c r="O21">
-        <v>0.3619502603258385</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P21">
-        <v>0.4438786563962321</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q21">
-        <v>34.905226587598</v>
+        <v>0.6687472512713332</v>
       </c>
       <c r="R21">
-        <v>209.431359525588</v>
+        <v>4.012483507628</v>
       </c>
       <c r="S21">
-        <v>0.01151781230481942</v>
+        <v>0.0001988216029767205</v>
       </c>
       <c r="T21">
-        <v>0.009908424587276308</v>
+        <v>0.0001793758261552558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.780919</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H22">
-        <v>25.561838</v>
+        <v>415.312492</v>
       </c>
       <c r="I22">
-        <v>0.03182153341857176</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J22">
-        <v>0.02232237221704003</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.164664</v>
+        <v>0.534932</v>
       </c>
       <c r="N22">
-        <v>0.493992</v>
+        <v>1.069864</v>
       </c>
       <c r="O22">
-        <v>0.02182323730879784</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P22">
-        <v>0.02676298463254288</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q22">
-        <v>2.104557246216</v>
+        <v>74.05464732351467</v>
       </c>
       <c r="R22">
-        <v>12.627343477296</v>
+        <v>444.327883941088</v>
       </c>
       <c r="S22">
-        <v>0.0006944488753233327</v>
+        <v>0.0220167838607878</v>
       </c>
       <c r="T22">
-        <v>0.0005974133046065443</v>
+        <v>0.0198634289995787</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.780919</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H23">
-        <v>25.561838</v>
+        <v>415.312492</v>
       </c>
       <c r="I23">
-        <v>0.03182153341857176</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J23">
-        <v>0.02232237221704003</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.922542</v>
+        <v>2.731042</v>
       </c>
       <c r="N23">
-        <v>7.845084</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O23">
-        <v>0.5198620519344028</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P23">
-        <v>0.4250227990190287</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q23">
-        <v>50.133691576098</v>
+        <v>378.0786195922213</v>
       </c>
       <c r="R23">
-        <v>200.534766304392</v>
+        <v>3402.707576329992</v>
       </c>
       <c r="S23">
-        <v>0.01654280765867789</v>
+        <v>0.1124044952045001</v>
       </c>
       <c r="T23">
-        <v>0.009487517120430954</v>
+        <v>0.1521161349345358</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.780919</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H24">
-        <v>25.561838</v>
+        <v>415.312492</v>
       </c>
       <c r="I24">
-        <v>0.03182153341857176</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J24">
-        <v>0.02232237221704003</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.4184600000000001</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N24">
-        <v>1.25538</v>
+        <v>0.032909</v>
       </c>
       <c r="O24">
-        <v>0.05545931037895075</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P24">
-        <v>0.06801267155743754</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q24">
-        <v>5.348303364740001</v>
+        <v>1.518613199914223</v>
       </c>
       <c r="R24">
-        <v>32.08982018844001</v>
+        <v>13.667518799228</v>
       </c>
       <c r="S24">
-        <v>0.001764800298594725</v>
+        <v>0.0004514906194149697</v>
       </c>
       <c r="T24">
-        <v>0.001518204169980412</v>
+        <v>0.0006109987670836063</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.780919</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H25">
-        <v>25.561838</v>
+        <v>415.312492</v>
       </c>
       <c r="I25">
-        <v>0.03182153341857176</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J25">
-        <v>0.02232237221704003</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05316166666666666</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N25">
-        <v>0.159485</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O25">
-        <v>0.007045618152102915</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P25">
-        <v>0.008640412403684879</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q25">
-        <v>0.6794549555716667</v>
+        <v>595.7664619614866</v>
       </c>
       <c r="R25">
-        <v>4.07672973343</v>
+        <v>3574.59877176892</v>
       </c>
       <c r="S25">
-        <v>0.0002242023734816387</v>
+        <v>0.1771240819932619</v>
       </c>
       <c r="T25">
-        <v>0.0001928745017837834</v>
+        <v>0.1598004344792084</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H26">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I26">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J26">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.255482</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N26">
-        <v>0.510964</v>
+        <v>0.114962</v>
       </c>
       <c r="O26">
-        <v>0.03385952189990702</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P26">
-        <v>0.02768247599107402</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q26">
-        <v>10.68177523237</v>
+        <v>5.305017189478222</v>
       </c>
       <c r="R26">
-        <v>64.09065139422</v>
+        <v>47.745154705304</v>
       </c>
       <c r="S26">
-        <v>0.003524706590858227</v>
+        <v>0.001577205767090575</v>
       </c>
       <c r="T26">
-        <v>0.003032198174750693</v>
+        <v>0.0021344203792721</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.810285</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H27">
-        <v>125.430855</v>
+        <v>251.045169</v>
       </c>
       <c r="I27">
-        <v>0.1040979432987182</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J27">
-        <v>0.1095349337872956</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.731042</v>
+        <v>0.534932</v>
       </c>
       <c r="N27">
-        <v>8.193125999999999</v>
+        <v>1.069864</v>
       </c>
       <c r="O27">
-        <v>0.3619502603258385</v>
+        <v>0.07021238950752677</v>
       </c>
       <c r="P27">
-        <v>0.4438786563962321</v>
+        <v>0.05937793649427284</v>
       </c>
       <c r="Q27">
-        <v>114.18564436697</v>
+        <v>44.76403144783599</v>
       </c>
       <c r="R27">
-        <v>1027.67079930273</v>
+        <v>268.584188687016</v>
       </c>
       <c r="S27">
-        <v>0.03767827767635542</v>
+        <v>0.01330855038467743</v>
       </c>
       <c r="T27">
-        <v>0.04862021923795501</v>
+        <v>0.01200690561005022</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.810285</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H28">
-        <v>125.430855</v>
+        <v>251.045169</v>
       </c>
       <c r="I28">
-        <v>0.1040979432987182</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J28">
-        <v>0.1095349337872956</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.164664</v>
+        <v>2.731042</v>
       </c>
       <c r="N28">
-        <v>0.493992</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O28">
-        <v>0.02182323730879784</v>
+        <v>0.3584623553375287</v>
       </c>
       <c r="P28">
-        <v>0.02676298463254288</v>
+        <v>0.4547222033058179</v>
       </c>
       <c r="Q28">
-        <v>6.88464876924</v>
+        <v>228.538300145366</v>
       </c>
       <c r="R28">
-        <v>61.96183892316</v>
+        <v>2056.844701308294</v>
       </c>
       <c r="S28">
-        <v>0.002271754119965709</v>
+        <v>0.06794547729369384</v>
       </c>
       <c r="T28">
-        <v>0.002931481749675993</v>
+        <v>0.09195008948169886</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.810285</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H29">
-        <v>125.430855</v>
+        <v>251.045169</v>
       </c>
       <c r="I29">
-        <v>0.1040979432987182</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J29">
-        <v>0.1095349337872956</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>3.922542</v>
+        <v>0.01096966666666667</v>
       </c>
       <c r="N29">
-        <v>7.845084</v>
+        <v>0.032909</v>
       </c>
       <c r="O29">
-        <v>0.5198620519344028</v>
+        <v>0.001439821339474425</v>
       </c>
       <c r="P29">
-        <v>0.4250227990190287</v>
+        <v>0.001826464403036297</v>
       </c>
       <c r="Q29">
-        <v>164.00259894447</v>
+        <v>0.9179606074023333</v>
       </c>
       <c r="R29">
-        <v>984.0155936668201</v>
+        <v>8.261645466620999</v>
       </c>
       <c r="S29">
-        <v>0.05411657040542274</v>
+        <v>0.0002729138685598355</v>
       </c>
       <c r="T29">
-        <v>0.04655484414864035</v>
+        <v>0.0003693322298171941</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.810285</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H30">
-        <v>125.430855</v>
+        <v>251.045169</v>
       </c>
       <c r="I30">
-        <v>0.1040979432987182</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J30">
-        <v>0.1095349337872956</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4184600000000001</v>
+        <v>4.303504999999999</v>
       </c>
       <c r="N30">
-        <v>1.25538</v>
+        <v>8.607009999999999</v>
       </c>
       <c r="O30">
-        <v>0.05545931037895075</v>
+        <v>0.5648556626030766</v>
       </c>
       <c r="P30">
-        <v>0.06801267155743754</v>
+        <v>0.4776929527356479</v>
       </c>
       <c r="Q30">
-        <v>17.4959318611</v>
+        <v>360.1247133391149</v>
       </c>
       <c r="R30">
-        <v>157.4633867499</v>
+        <v>2160.74828003469</v>
       </c>
       <c r="S30">
-        <v>0.005773200147214027</v>
+        <v>0.1070667171214496</v>
       </c>
       <c r="T30">
-        <v>0.007449763475741003</v>
+        <v>0.09659504072924997</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.810285</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H31">
-        <v>125.430855</v>
+        <v>251.045169</v>
       </c>
       <c r="I31">
-        <v>0.1040979432987182</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J31">
-        <v>0.1095349337872956</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.05316166666666666</v>
+        <v>0.03832066666666666</v>
       </c>
       <c r="N31">
-        <v>0.159485</v>
+        <v>0.114962</v>
       </c>
       <c r="O31">
-        <v>0.007045618152102915</v>
+        <v>0.005029771212393533</v>
       </c>
       <c r="P31">
-        <v>0.008640412403684879</v>
+        <v>0.006380443061225159</v>
       </c>
       <c r="Q31">
-        <v>2.222704434408333</v>
+        <v>3.206739413175333</v>
       </c>
       <c r="R31">
-        <v>20.004339909675</v>
+        <v>28.860654718578</v>
       </c>
       <c r="S31">
-        <v>0.0007334343589020287</v>
+        <v>0.0009533782295838768</v>
       </c>
       <c r="T31">
-        <v>0.0009464270005325508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H32">
-        <v>475.930603</v>
-      </c>
-      <c r="I32">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J32">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.255482</v>
-      </c>
-      <c r="N32">
-        <v>0.510964</v>
-      </c>
-      <c r="O32">
-        <v>0.03385952189990702</v>
-      </c>
-      <c r="P32">
-        <v>0.02768247599107402</v>
-      </c>
-      <c r="Q32">
-        <v>40.53056743854867</v>
-      </c>
-      <c r="R32">
-        <v>243.183404631292</v>
-      </c>
-      <c r="S32">
-        <v>0.01337402773173499</v>
-      </c>
-      <c r="T32">
-        <v>0.01150527041950401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H33">
-        <v>475.930603</v>
-      </c>
-      <c r="I33">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J33">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.731042</v>
-      </c>
-      <c r="N33">
-        <v>8.193125999999999</v>
-      </c>
-      <c r="O33">
-        <v>0.3619502603258385</v>
-      </c>
-      <c r="P33">
-        <v>0.4438786563962321</v>
-      </c>
-      <c r="Q33">
-        <v>433.2621552927754</v>
-      </c>
-      <c r="R33">
-        <v>3899.359397634978</v>
-      </c>
-      <c r="S33">
-        <v>0.1429651851971293</v>
-      </c>
-      <c r="T33">
-        <v>0.1844829189748577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H34">
-        <v>475.930603</v>
-      </c>
-      <c r="I34">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J34">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.164664</v>
-      </c>
-      <c r="N34">
-        <v>0.493992</v>
-      </c>
-      <c r="O34">
-        <v>0.02182323730879784</v>
-      </c>
-      <c r="P34">
-        <v>0.02676298463254288</v>
-      </c>
-      <c r="Q34">
-        <v>26.12287893746401</v>
-      </c>
-      <c r="R34">
-        <v>235.105910437176</v>
-      </c>
-      <c r="S34">
-        <v>0.008619867162533604</v>
-      </c>
-      <c r="T34">
-        <v>0.0111231154153162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H35">
-        <v>475.930603</v>
-      </c>
-      <c r="I35">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J35">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.922542</v>
-      </c>
-      <c r="N35">
-        <v>7.845084</v>
-      </c>
-      <c r="O35">
-        <v>0.5198620519344028</v>
-      </c>
-      <c r="P35">
-        <v>0.4250227990190287</v>
-      </c>
-      <c r="Q35">
-        <v>622.285926450942</v>
-      </c>
-      <c r="R35">
-        <v>3733.715558705652</v>
-      </c>
-      <c r="S35">
-        <v>0.2053380883463228</v>
-      </c>
-      <c r="T35">
-        <v>0.1766461294410647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H36">
-        <v>475.930603</v>
-      </c>
-      <c r="I36">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J36">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.4184600000000001</v>
-      </c>
-      <c r="N36">
-        <v>1.25538</v>
-      </c>
-      <c r="O36">
-        <v>0.05545931037895075</v>
-      </c>
-      <c r="P36">
-        <v>0.06801267155743754</v>
-      </c>
-      <c r="Q36">
-        <v>66.38597337712669</v>
-      </c>
-      <c r="R36">
-        <v>597.4737603941401</v>
-      </c>
-      <c r="S36">
-        <v>0.02190563579673646</v>
-      </c>
-      <c r="T36">
-        <v>0.02826713110754759</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H37">
-        <v>475.930603</v>
-      </c>
-      <c r="I37">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J37">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.05316166666666666</v>
-      </c>
-      <c r="N37">
-        <v>0.159485</v>
-      </c>
-      <c r="O37">
-        <v>0.007045618152102915</v>
-      </c>
-      <c r="P37">
-        <v>0.008640412403684879</v>
-      </c>
-      <c r="Q37">
-        <v>8.433754691050556</v>
-      </c>
-      <c r="R37">
-        <v>75.903792219455</v>
-      </c>
-      <c r="S37">
-        <v>0.002782918578472266</v>
-      </c>
-      <c r="T37">
-        <v>0.003591090669508218</v>
+        <v>0.001290199392392484</v>
       </c>
     </row>
   </sheetData>
